--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Emplyee Data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>

--- a/data.xlsx
+++ b/data.xlsx
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
-    <t xml:space="preserve">NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALARY</t>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmpId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary</t>
   </si>
   <si>
     <t xml:space="preserve">ABC</t>
@@ -177,7 +177,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -177,7 +177,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
